--- a/magazyn.xlsx
+++ b/magazyn.xlsx
@@ -590,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>9999000</v>
+        <v>9998000</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-64577</v>
+        <v>-75310</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>9971454</v>
+        <v>9966444</v>
       </c>
       <c r="C8">
         <v>500</v>
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>9999965</v>
+        <v>9999963</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>9543183</v>
+        <v>9429383</v>
       </c>
       <c r="C15">
         <v>10000</v>
@@ -752,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9642366</v>
+        <v>9614036</v>
       </c>
       <c r="C18">
         <v>10000</v>
@@ -785,7 +785,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>9488959</v>
+        <v>9456299</v>
       </c>
       <c r="C21">
         <v>100000</v>
@@ -796,7 +796,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>5961832</v>
+        <v>5133832</v>
       </c>
       <c r="C22">
         <v>200000</v>
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>9899553.000000009</v>
+        <v>9879813.000000009</v>
       </c>
       <c r="C43">
         <v>25000</v>
@@ -1070,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>9769036</v>
+        <v>9604036</v>
       </c>
     </row>
     <row r="49" spans="1:2">
